--- a/biology/Zoologie/Atractus_ronnie/Atractus_ronnie.xlsx
+++ b/biology/Zoologie/Atractus_ronnie/Atractus_ronnie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus ronnie est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus ronnie est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Ceará au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Ceará au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus ronnie[2] mesure au maximum 248 mm plus 37 mm pour la queue, pour les mâles et 312 mm plus 30 mm pour la queue, pour les femelles. Son dos est brun roux avec des petites taches brun foncé. Sa face ventrale est jaune crème.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus ronnie mesure au maximum 248 mm plus 37 mm pour la queue, pour les mâles et 312 mm plus 30 mm pour la queue, pour les femelles. Son dos est brun roux avec des petites taches brun foncé. Sa face ventrale est jaune crème.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ronaldo Fernandes, surnommé « Ronnie »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ronaldo Fernandes, surnommé « Ronnie ».
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Passos, Fernandes &amp; Borges-Nojosa, 2007 : A New Species of Atractus (Serpentes: Dipsadinae) from a Relictual Forest in Northeastern Brazil. Copeia, vol. 2007, no 4, p. 788–797 (texte intégral).</t>
         </is>
